--- a/biology/Zoologie/Hyponephele/Hyponephele.xlsx
+++ b/biology/Zoologie/Hyponephele/Hyponephele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hyponephele regroupe des lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Hyponephele a été donné par Muschamp en 1915.
 En anglais ils se nomment Meadowbrowns (« bruns de prairie »).
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident tous en Asie sauf Hyponephele maroccana, mais deux d'entre eux résident en Asie et en Europe Hyponephele lycaon le Misis et Hyponephele lupina le Louvet aussi présent en Afrique du Nord.
 </t>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hyponephele amardaea (Lederer, 1869); présent dans le nord de l'Iran.
 Hyponephele argyrostigma Tuzov et Samodurov, 1997.
@@ -600,7 +618,7 @@
 Hyponephele difficilis Clench et Shoumatoff, 1956; présent en Afghanistan.
 Hyponephele dysdora (Lederer, 1869); de l'Iran à l'Afghanistan et au Pakistan.
 Hyponephele dysdora dysdora
-Hyponephele dysdora dysdorina (Heine, [1894])
+Hyponephele dysdora dysdorina (Heine, )
 Hyponephele dzhungarica Samodurow, 1996.
 Hyponephele fortambeka Samodurov, 1996.
 Hyponephele fusca Stshetkin, 1960.; en Iran, au Tadjikistan, Afghanistan et Ouzbékistan.
@@ -719,7 +737,9 @@
           <t>Première publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">PAH Muschamp, The Ci-devant Genus Epinephele, The Entomologist's Record and Journal of Variation, vol.27 p.152-156 Texte complet
 </t>
